--- a/database/industries/urea/khorasan/product/quarterly.xlsx
+++ b/database/industries/urea/khorasan/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\urea\khorasan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\khorasan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF51F2F6-B786-49B3-BB80-2859C166F43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB41905B-A418-4980-893D-4A4ADA8DA000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="39">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار تولید</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -577,16 +592,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I104"/>
+  <dimension ref="B1:N104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -595,8 +610,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -607,8 +627,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -619,8 +644,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -629,8 +659,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -641,8 +676,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -653,8 +693,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -663,8 +708,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -685,8 +735,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -695,268 +760,438 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>138458</v>
+      </c>
+      <c r="F10" s="9">
+        <v>153229</v>
+      </c>
+      <c r="G10" s="9">
+        <v>108038</v>
+      </c>
+      <c r="H10" s="9">
+        <v>159365</v>
+      </c>
+      <c r="I10" s="9">
+        <v>155790</v>
+      </c>
+      <c r="J10" s="9">
         <v>154118</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>99467</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>158530</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>158709</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>144171</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>81933</v>
+      </c>
+      <c r="F11" s="11">
+        <v>89543</v>
+      </c>
+      <c r="G11" s="11">
+        <v>55818</v>
+      </c>
+      <c r="H11" s="11">
+        <v>92221</v>
+      </c>
+      <c r="I11" s="11">
+        <v>92933</v>
+      </c>
+      <c r="J11" s="11">
         <v>90000</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>57491</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>93005</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>93040</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>86796</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>4763</v>
+      </c>
+      <c r="F13" s="11">
+        <v>5445</v>
+      </c>
+      <c r="G13" s="11">
+        <v>3737</v>
+      </c>
+      <c r="H13" s="11">
+        <v>5638</v>
+      </c>
+      <c r="I13" s="11">
+        <v>5560</v>
+      </c>
+      <c r="J13" s="11">
         <v>5455</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>3049</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>5455</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>5637</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>3494</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
+      <c r="E14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0</v>
-      </c>
-      <c r="H15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0</v>
+      </c>
+      <c r="N15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="9">
+        <v>19</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="9">
         <v>291184</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>81133</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>81169</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>76792</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="11">
+        <v>19</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="11">
         <v>63157</v>
       </c>
-      <c r="G17" s="11">
+      <c r="L17" s="11">
         <v>17519</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>18101</v>
       </c>
-      <c r="I17" s="11">
+      <c r="N17" s="11">
         <v>11457</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="9">
+        <v>19</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="9">
         <v>14729</v>
       </c>
-      <c r="G18" s="9">
+      <c r="L18" s="9">
         <v>4022</v>
       </c>
-      <c r="H18" s="9">
+      <c r="M18" s="9">
         <v>4096</v>
       </c>
-      <c r="I18" s="9">
+      <c r="N18" s="9">
         <v>2779</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="11">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
+        <v>225154</v>
+      </c>
+      <c r="F20" s="13">
+        <v>248217</v>
+      </c>
+      <c r="G20" s="13">
+        <v>167593</v>
+      </c>
+      <c r="H20" s="13">
+        <v>257224</v>
+      </c>
+      <c r="I20" s="13">
+        <v>254283</v>
+      </c>
+      <c r="J20" s="13">
         <v>249573</v>
       </c>
-      <c r="F20" s="13">
+      <c r="K20" s="13">
         <v>529077</v>
       </c>
-      <c r="G20" s="13">
+      <c r="L20" s="13">
         <v>359664</v>
       </c>
-      <c r="H20" s="13">
+      <c r="M20" s="13">
         <v>360752</v>
       </c>
-      <c r="I20" s="13">
+      <c r="N20" s="13">
         <v>325489</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -965,8 +1200,13 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -975,8 +1215,13 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -985,10 +1230,15 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1007,8 +1257,23 @@
       <c r="I24" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1017,130 +1282,210 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
+        <v>91381</v>
+      </c>
+      <c r="F26" s="9">
+        <v>143953</v>
+      </c>
+      <c r="G26" s="9">
+        <v>111412</v>
+      </c>
+      <c r="H26" s="9">
+        <v>117439</v>
+      </c>
+      <c r="I26" s="9">
+        <v>134292</v>
+      </c>
+      <c r="J26" s="9">
         <v>242569</v>
       </c>
-      <c r="F26" s="9">
+      <c r="K26" s="9">
         <v>-128427</v>
       </c>
-      <c r="G26" s="9">
+      <c r="L26" s="9">
         <v>113209</v>
       </c>
-      <c r="H26" s="9">
+      <c r="M26" s="9">
         <v>94510</v>
       </c>
-      <c r="I26" s="9">
+      <c r="N26" s="9">
         <v>72503</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
+        <v>2314</v>
+      </c>
+      <c r="F27" s="11">
+        <v>7285</v>
+      </c>
+      <c r="G27" s="11">
+        <v>2063</v>
+      </c>
+      <c r="H27" s="11">
+        <v>6016</v>
+      </c>
+      <c r="I27" s="11">
+        <v>4103</v>
+      </c>
+      <c r="J27" s="11">
         <v>7874</v>
       </c>
-      <c r="F27" s="11">
+      <c r="K27" s="11">
         <v>7934</v>
       </c>
-      <c r="G27" s="11">
+      <c r="L27" s="11">
         <v>6233</v>
       </c>
-      <c r="H27" s="11">
+      <c r="M27" s="11">
         <v>9140</v>
       </c>
-      <c r="I27" s="11">
+      <c r="N27" s="11">
         <v>9816</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="9">
+        <v>19</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="9">
         <v>13118</v>
       </c>
-      <c r="G28" s="9">
+      <c r="L28" s="9">
         <v>1759</v>
       </c>
-      <c r="H28" s="9">
+      <c r="M28" s="9">
         <v>4005</v>
       </c>
-      <c r="I28" s="9">
+      <c r="N28" s="9">
         <v>5902</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="11"/>
-      <c r="E29" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>14</v>
+      <c r="E29" s="11">
+        <v>0</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9">
+        <v>4489</v>
+      </c>
+      <c r="F30" s="9">
+        <v>5733</v>
+      </c>
+      <c r="G30" s="9">
+        <v>3647</v>
+      </c>
+      <c r="H30" s="9">
+        <v>4807</v>
+      </c>
+      <c r="I30" s="9">
+        <v>5884</v>
+      </c>
+      <c r="J30" s="9">
         <v>11203</v>
       </c>
-      <c r="F30" s="9">
+      <c r="K30" s="9">
         <v>-9086</v>
       </c>
-      <c r="G30" s="9">
+      <c r="L30" s="9">
         <v>1312</v>
       </c>
-      <c r="H30" s="9">
+      <c r="M30" s="9">
         <v>598</v>
       </c>
-      <c r="I30" s="9">
+      <c r="N30" s="9">
         <v>1084</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -1159,150 +1504,255 @@
       <c r="I31" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="11">
+        <v>0</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0</v>
+      </c>
+      <c r="L31" s="11">
+        <v>0</v>
+      </c>
+      <c r="M31" s="11">
+        <v>0</v>
+      </c>
+      <c r="N31" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="9">
+        <v>19</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="9">
         <v>12693</v>
       </c>
-      <c r="G32" s="9">
+      <c r="L32" s="9">
         <v>3632</v>
       </c>
-      <c r="H32" s="9">
+      <c r="M32" s="9">
         <v>4441</v>
       </c>
-      <c r="I32" s="9">
+      <c r="N32" s="9">
         <v>4062</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="11">
-        <v>0</v>
-      </c>
-      <c r="G33" s="11">
-        <v>0</v>
-      </c>
-      <c r="H33" s="11">
-        <v>0</v>
-      </c>
-      <c r="I33" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0</v>
+      </c>
+      <c r="L33" s="11">
+        <v>0</v>
+      </c>
+      <c r="M33" s="11">
+        <v>0</v>
+      </c>
+      <c r="N33" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="9">
-        <v>0</v>
-      </c>
-      <c r="G34" s="9">
-        <v>0</v>
-      </c>
-      <c r="H34" s="9">
-        <v>0</v>
-      </c>
-      <c r="I34" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="9">
+        <v>0</v>
+      </c>
+      <c r="L34" s="9">
+        <v>0</v>
+      </c>
+      <c r="M34" s="9">
+        <v>0</v>
+      </c>
+      <c r="N34" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="11">
-        <v>0</v>
-      </c>
-      <c r="G35" s="11">
-        <v>0</v>
-      </c>
-      <c r="H35" s="11">
-        <v>0</v>
-      </c>
-      <c r="I35" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="11">
+        <v>0</v>
+      </c>
+      <c r="L35" s="11">
+        <v>0</v>
+      </c>
+      <c r="M35" s="11">
+        <v>0</v>
+      </c>
+      <c r="N35" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="9">
+        <v>19</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" s="9">
         <v>186775</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="9">
+      <c r="L36" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N36" s="9">
         <v>34924</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15">
+        <v>98184</v>
+      </c>
+      <c r="F37" s="15">
+        <v>156971</v>
+      </c>
+      <c r="G37" s="15">
+        <v>117122</v>
+      </c>
+      <c r="H37" s="15">
+        <v>128262</v>
+      </c>
+      <c r="I37" s="15">
+        <v>144279</v>
+      </c>
+      <c r="J37" s="15">
         <v>261646</v>
       </c>
-      <c r="F37" s="15">
+      <c r="K37" s="15">
         <v>83007</v>
       </c>
-      <c r="G37" s="15">
+      <c r="L37" s="15">
         <v>126145</v>
       </c>
-      <c r="H37" s="15">
+      <c r="M37" s="15">
         <v>112694</v>
       </c>
-      <c r="I37" s="15">
+      <c r="N37" s="15">
         <v>128291</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1311,8 +1761,13 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1321,8 +1776,13 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1331,10 +1791,15 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1353,8 +1818,23 @@
       <c r="I41" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1363,294 +1843,479 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
+        <v>2838018</v>
+      </c>
+      <c r="F43" s="9">
+        <v>6657951</v>
+      </c>
+      <c r="G43" s="9">
+        <v>5598783</v>
+      </c>
+      <c r="H43" s="9">
+        <v>6258716</v>
+      </c>
+      <c r="I43" s="9">
+        <v>9069434</v>
+      </c>
+      <c r="J43" s="9">
         <v>20409902</v>
       </c>
-      <c r="F43" s="9">
+      <c r="K43" s="9">
         <v>-5398209</v>
       </c>
-      <c r="G43" s="9">
+      <c r="L43" s="9">
         <v>15349161</v>
       </c>
-      <c r="H43" s="9">
+      <c r="M43" s="9">
         <v>13783444</v>
       </c>
-      <c r="I43" s="9">
+      <c r="N43" s="9">
         <v>11186895</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
+        <v>55668</v>
+      </c>
+      <c r="F44" s="11">
+        <v>209538</v>
+      </c>
+      <c r="G44" s="11">
+        <v>72243</v>
+      </c>
+      <c r="H44" s="11">
+        <v>281967</v>
+      </c>
+      <c r="I44" s="11">
+        <v>267843</v>
+      </c>
+      <c r="J44" s="11">
         <v>775403</v>
       </c>
-      <c r="F44" s="11">
+      <c r="K44" s="11">
         <v>1119406</v>
       </c>
-      <c r="G44" s="11">
+      <c r="L44" s="11">
         <v>1039004</v>
       </c>
-      <c r="H44" s="11">
+      <c r="M44" s="11">
         <v>1754584</v>
       </c>
-      <c r="I44" s="11">
+      <c r="N44" s="11">
         <v>1993927</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="9">
+        <v>19</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" s="9">
         <v>1244920</v>
       </c>
-      <c r="G45" s="9">
+      <c r="L45" s="9">
         <v>266443</v>
       </c>
-      <c r="H45" s="9">
+      <c r="M45" s="9">
         <v>492936</v>
       </c>
-      <c r="I45" s="9">
+      <c r="N45" s="9">
         <v>766225</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D46" s="11"/>
-      <c r="E46" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>14</v>
+      <c r="E46" s="11">
+        <v>0</v>
+      </c>
+      <c r="F46" s="11">
+        <v>0</v>
+      </c>
+      <c r="G46" s="11">
+        <v>0</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9">
+        <v>786798</v>
+      </c>
+      <c r="F47" s="9">
+        <v>1281530</v>
+      </c>
+      <c r="G47" s="9">
+        <v>1145559</v>
+      </c>
+      <c r="H47" s="9">
+        <v>1855471</v>
+      </c>
+      <c r="I47" s="9">
+        <v>2922063</v>
+      </c>
+      <c r="J47" s="9">
         <v>6660403</v>
       </c>
-      <c r="F47" s="9">
+      <c r="K47" s="9">
         <v>-4847816</v>
       </c>
-      <c r="G47" s="9">
+      <c r="L47" s="9">
         <v>816836</v>
       </c>
-      <c r="H47" s="9">
+      <c r="M47" s="9">
         <v>263567</v>
       </c>
-      <c r="I47" s="9">
+      <c r="N47" s="9">
         <v>445655</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>0</v>
+        <v>-1239</v>
       </c>
       <c r="F48" s="11">
-        <v>0</v>
+        <v>-5809</v>
       </c>
       <c r="G48" s="11">
-        <v>0</v>
+        <v>-7130</v>
       </c>
       <c r="H48" s="11">
-        <v>0</v>
+        <v>-9314</v>
       </c>
       <c r="I48" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+        <v>9314</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <v>0</v>
+      </c>
+      <c r="N48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="9">
+        <v>19</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" s="9">
         <v>7362151</v>
       </c>
-      <c r="G49" s="9">
+      <c r="L49" s="9">
         <v>2061880</v>
       </c>
-      <c r="H49" s="9">
+      <c r="M49" s="9">
         <v>2053536</v>
       </c>
-      <c r="I49" s="9">
+      <c r="N49" s="9">
         <v>1667832</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="11">
-        <v>0</v>
-      </c>
-      <c r="G50" s="11">
-        <v>0</v>
-      </c>
-      <c r="H50" s="11">
-        <v>0</v>
-      </c>
-      <c r="I50" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" s="11">
+        <v>0</v>
+      </c>
+      <c r="L50" s="11">
+        <v>0</v>
+      </c>
+      <c r="M50" s="11">
+        <v>0</v>
+      </c>
+      <c r="N50" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="9">
-        <v>0</v>
-      </c>
-      <c r="G51" s="9">
-        <v>0</v>
-      </c>
-      <c r="H51" s="9">
-        <v>0</v>
-      </c>
-      <c r="I51" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" s="9">
+        <v>0</v>
+      </c>
+      <c r="L51" s="9">
+        <v>0</v>
+      </c>
+      <c r="M51" s="9">
+        <v>0</v>
+      </c>
+      <c r="N51" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="11">
-        <v>0</v>
-      </c>
-      <c r="G52" s="11">
-        <v>0</v>
-      </c>
-      <c r="H52" s="11">
-        <v>0</v>
-      </c>
-      <c r="I52" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" s="11">
+        <v>0</v>
+      </c>
+      <c r="L52" s="11">
+        <v>0</v>
+      </c>
+      <c r="M52" s="11">
+        <v>0</v>
+      </c>
+      <c r="N52" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="9">
+        <v>19</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K53" s="9">
         <v>12348052</v>
       </c>
-      <c r="G53" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I53" s="9">
+      <c r="L53" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N53" s="9">
         <v>3792959</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15">
+        <v>3679245</v>
+      </c>
+      <c r="F54" s="15">
+        <v>8143210</v>
+      </c>
+      <c r="G54" s="15">
+        <v>6809455</v>
+      </c>
+      <c r="H54" s="15">
+        <v>8386840</v>
+      </c>
+      <c r="I54" s="15">
+        <v>12268654</v>
+      </c>
+      <c r="J54" s="15">
         <v>27845708</v>
       </c>
-      <c r="F54" s="15">
+      <c r="K54" s="15">
         <v>11828504</v>
       </c>
-      <c r="G54" s="15">
+      <c r="L54" s="15">
         <v>19533324</v>
       </c>
-      <c r="H54" s="15">
+      <c r="M54" s="15">
         <v>18348067</v>
       </c>
-      <c r="I54" s="15">
+      <c r="N54" s="15">
         <v>19853493</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1659,8 +2324,13 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1669,8 +2339,13 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1679,10 +2354,15 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -1701,8 +2381,23 @@
       <c r="I58" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1711,272 +2406,442 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9">
+        <v>31056981</v>
+      </c>
+      <c r="F60" s="9">
+        <v>46250867</v>
+      </c>
+      <c r="G60" s="9">
+        <v>50252962</v>
+      </c>
+      <c r="H60" s="9">
+        <v>53293335</v>
+      </c>
+      <c r="I60" s="9">
+        <v>67535177</v>
+      </c>
+      <c r="J60" s="9">
         <v>114579431</v>
       </c>
-      <c r="F60" s="9">
+      <c r="K60" s="9">
         <v>42033287</v>
       </c>
-      <c r="G60" s="9">
+      <c r="L60" s="9">
         <v>135582516</v>
       </c>
-      <c r="H60" s="9">
+      <c r="M60" s="9">
         <v>145841117</v>
       </c>
-      <c r="I60" s="9">
+      <c r="N60" s="9">
         <v>154295615</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
+        <v>24057044</v>
+      </c>
+      <c r="F61" s="11">
+        <v>28592862</v>
+      </c>
+      <c r="G61" s="11">
+        <v>32202618</v>
+      </c>
+      <c r="H61" s="11">
+        <v>46869515</v>
+      </c>
+      <c r="I61" s="11">
+        <v>65279795</v>
+      </c>
+      <c r="J61" s="11">
         <v>98476378</v>
       </c>
-      <c r="F61" s="11">
+      <c r="K61" s="11">
         <v>141089740</v>
       </c>
-      <c r="G61" s="11">
+      <c r="L61" s="11">
         <v>166694048</v>
       </c>
-      <c r="H61" s="11">
+      <c r="M61" s="11">
         <v>191967615</v>
       </c>
-      <c r="I61" s="11">
+      <c r="N61" s="11">
         <v>203130297</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" s="9">
+        <v>19</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K62" s="9">
         <v>94901662</v>
       </c>
-      <c r="G62" s="9">
+      <c r="L62" s="9">
         <v>151474133</v>
       </c>
-      <c r="H62" s="9">
+      <c r="M62" s="9">
         <v>123080150</v>
       </c>
-      <c r="I62" s="9">
+      <c r="N62" s="9">
         <v>129824636</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L63" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M63" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N63" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
+        <v>175272444</v>
+      </c>
+      <c r="F64" s="9">
+        <v>223535671</v>
+      </c>
+      <c r="G64" s="9">
+        <v>314109953</v>
+      </c>
+      <c r="H64" s="9">
+        <v>385993551</v>
+      </c>
+      <c r="I64" s="9">
+        <v>496611659</v>
+      </c>
+      <c r="J64" s="9">
         <v>838572694</v>
       </c>
-      <c r="F64" s="9">
+      <c r="K64" s="9">
         <v>533547876</v>
       </c>
-      <c r="G64" s="9">
+      <c r="L64" s="9">
         <v>622588415</v>
       </c>
-      <c r="H64" s="9">
+      <c r="M64" s="9">
         <v>440747492</v>
       </c>
-      <c r="I64" s="9">
+      <c r="N64" s="9">
         <v>411120849</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K65" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L65" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M65" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N65" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="9">
+        <v>19</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K66" s="9">
         <v>580016623</v>
       </c>
-      <c r="G66" s="9">
+      <c r="L66" s="9">
         <v>567698238</v>
       </c>
-      <c r="H66" s="9">
+      <c r="M66" s="9">
         <v>462403963</v>
       </c>
-      <c r="I66" s="9">
+      <c r="N66" s="9">
         <v>410593796</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L67" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M67" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N67" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M68" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N68" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" s="9">
+        <v>19</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K70" s="9">
         <v>66111910</v>
       </c>
-      <c r="G70" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I70" s="9">
+      <c r="L70" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M70" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N70" s="9">
         <v>108606088</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1985,8 +2850,13 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1995,8 +2865,13 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2005,10 +2880,15 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -2027,8 +2907,23 @@
       <c r="I74" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M74" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2037,133 +2932,213 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9">
+        <v>-870404</v>
+      </c>
+      <c r="F76" s="9">
+        <v>-1993800</v>
+      </c>
+      <c r="G76" s="9">
+        <v>-2359955</v>
+      </c>
+      <c r="H76" s="9">
+        <v>-2027274</v>
+      </c>
+      <c r="I76" s="9">
+        <v>-3258141</v>
+      </c>
+      <c r="J76" s="9">
         <v>-4835820</v>
       </c>
-      <c r="F76" s="9">
+      <c r="K76" s="9">
         <v>1536657</v>
       </c>
-      <c r="G76" s="9">
+      <c r="L76" s="9">
         <v>-4027985</v>
       </c>
-      <c r="H76" s="9">
+      <c r="M76" s="9">
         <v>-3694940</v>
       </c>
-      <c r="I76" s="9">
+      <c r="N76" s="9">
         <v>-2972977</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
+        <v>-25690</v>
+      </c>
+      <c r="F77" s="11">
+        <v>-119848</v>
+      </c>
+      <c r="G77" s="11">
+        <v>-64578</v>
+      </c>
+      <c r="H77" s="11">
+        <v>-131217</v>
+      </c>
+      <c r="I77" s="11">
+        <v>-145627</v>
+      </c>
+      <c r="J77" s="11">
         <v>-386322</v>
       </c>
-      <c r="F77" s="11">
+      <c r="K77" s="11">
         <v>-585202</v>
       </c>
-      <c r="G77" s="11">
+      <c r="L77" s="11">
         <v>-329357</v>
       </c>
-      <c r="H77" s="11">
+      <c r="M77" s="11">
         <v>-485071</v>
       </c>
-      <c r="I77" s="11">
+      <c r="N77" s="11">
         <v>-521617</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" s="9">
+        <v>19</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K78" s="9">
         <v>-389473</v>
       </c>
-      <c r="G78" s="9">
+      <c r="L78" s="9">
         <v>-60985</v>
       </c>
-      <c r="H78" s="9">
+      <c r="M78" s="9">
         <v>-135535</v>
       </c>
-      <c r="I78" s="9">
+      <c r="N78" s="9">
         <v>-204983</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D79" s="11"/>
-      <c r="E79" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>14</v>
+      <c r="E79" s="11">
+        <v>0</v>
+      </c>
+      <c r="F79" s="11">
+        <v>0</v>
+      </c>
+      <c r="G79" s="11">
+        <v>0</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K79" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L79" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M79" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N79" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9">
+        <v>-198305</v>
+      </c>
+      <c r="F80" s="9">
+        <v>-337863</v>
+      </c>
+      <c r="G80" s="9">
+        <v>-317297</v>
+      </c>
+      <c r="H80" s="9">
+        <v>-343797</v>
+      </c>
+      <c r="I80" s="9">
+        <v>-539696</v>
+      </c>
+      <c r="J80" s="9">
         <v>-704308</v>
       </c>
-      <c r="F80" s="9">
+      <c r="K80" s="9">
         <v>517076</v>
       </c>
-      <c r="G80" s="9">
+      <c r="L80" s="9">
         <v>-195003</v>
       </c>
-      <c r="H80" s="9">
+      <c r="M80" s="9">
         <v>-155551</v>
       </c>
-      <c r="I80" s="9">
+      <c r="N80" s="9">
         <v>-229632</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
@@ -2181,150 +3156,255 @@
       <c r="I81" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="11">
+        <v>0</v>
+      </c>
+      <c r="K81" s="11">
+        <v>0</v>
+      </c>
+      <c r="L81" s="11">
+        <v>0</v>
+      </c>
+      <c r="M81" s="11">
+        <v>0</v>
+      </c>
+      <c r="N81" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="9">
+        <v>19</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K82" s="9">
         <v>-2028431</v>
       </c>
-      <c r="G82" s="9">
+      <c r="L82" s="9">
         <v>-538062</v>
       </c>
-      <c r="H82" s="9">
+      <c r="M82" s="9">
         <v>-941104</v>
       </c>
-      <c r="I82" s="9">
+      <c r="N82" s="9">
         <v>-848452</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="11">
-        <v>0</v>
-      </c>
-      <c r="G83" s="11">
-        <v>0</v>
-      </c>
-      <c r="H83" s="11">
-        <v>0</v>
-      </c>
-      <c r="I83" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K83" s="11">
+        <v>0</v>
+      </c>
+      <c r="L83" s="11">
+        <v>0</v>
+      </c>
+      <c r="M83" s="11">
+        <v>0</v>
+      </c>
+      <c r="N83" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="9">
-        <v>0</v>
-      </c>
-      <c r="G84" s="9">
-        <v>0</v>
-      </c>
-      <c r="H84" s="9">
-        <v>0</v>
-      </c>
-      <c r="I84" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K84" s="9">
+        <v>0</v>
+      </c>
+      <c r="L84" s="9">
+        <v>0</v>
+      </c>
+      <c r="M84" s="9">
+        <v>0</v>
+      </c>
+      <c r="N84" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="11">
-        <v>0</v>
-      </c>
-      <c r="G85" s="11">
-        <v>0</v>
-      </c>
-      <c r="H85" s="11">
-        <v>0</v>
-      </c>
-      <c r="I85" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K85" s="11">
+        <v>0</v>
+      </c>
+      <c r="L85" s="11">
+        <v>0</v>
+      </c>
+      <c r="M85" s="11">
+        <v>0</v>
+      </c>
+      <c r="N85" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="9">
+        <v>19</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K86" s="9">
         <v>-5545350</v>
       </c>
-      <c r="G86" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I86" s="9">
+      <c r="L86" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M86" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N86" s="9">
         <v>-1226380</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
+        <v>-1094399</v>
+      </c>
+      <c r="F87" s="15">
+        <v>-2451511</v>
+      </c>
+      <c r="G87" s="15">
+        <v>-2741830</v>
+      </c>
+      <c r="H87" s="15">
+        <v>-2502288</v>
+      </c>
+      <c r="I87" s="15">
+        <v>-3943464</v>
+      </c>
+      <c r="J87" s="15">
         <v>-5926450</v>
       </c>
-      <c r="F87" s="15">
+      <c r="K87" s="15">
         <v>-6494723</v>
       </c>
-      <c r="G87" s="15">
+      <c r="L87" s="15">
         <v>-5151392</v>
       </c>
-      <c r="H87" s="15">
+      <c r="M87" s="15">
         <v>-5412201</v>
       </c>
-      <c r="I87" s="15">
+      <c r="N87" s="15">
         <v>-6004041</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2333,8 +3413,13 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2343,8 +3428,13 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2353,10 +3443,15 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -2375,8 +3470,23 @@
       <c r="I91" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L91" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M91" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N91" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2385,290 +3495,475 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9">
+        <v>1967614</v>
+      </c>
+      <c r="F93" s="9">
+        <v>4664151</v>
+      </c>
+      <c r="G93" s="9">
+        <v>3238828</v>
+      </c>
+      <c r="H93" s="9">
+        <v>4231442</v>
+      </c>
+      <c r="I93" s="9">
+        <v>5811293</v>
+      </c>
+      <c r="J93" s="9">
         <v>10474169</v>
       </c>
-      <c r="F93" s="9">
+      <c r="K93" s="9">
         <v>-3861552</v>
       </c>
-      <c r="G93" s="9">
+      <c r="L93" s="9">
         <v>11321176</v>
       </c>
-      <c r="H93" s="9">
+      <c r="M93" s="9">
         <v>10088504</v>
       </c>
-      <c r="I93" s="9">
+      <c r="N93" s="9">
         <v>8213918</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11">
+        <v>29978</v>
+      </c>
+      <c r="F94" s="11">
+        <v>88451</v>
+      </c>
+      <c r="G94" s="11">
+        <v>1856</v>
+      </c>
+      <c r="H94" s="11">
+        <v>150750</v>
+      </c>
+      <c r="I94" s="11">
+        <v>122216</v>
+      </c>
+      <c r="J94" s="11">
         <v>389081</v>
       </c>
-      <c r="F94" s="11">
+      <c r="K94" s="11">
         <v>534204</v>
       </c>
-      <c r="G94" s="11">
+      <c r="L94" s="11">
         <v>709647</v>
       </c>
-      <c r="H94" s="11">
+      <c r="M94" s="11">
         <v>1269513</v>
       </c>
-      <c r="I94" s="11">
+      <c r="N94" s="11">
         <v>1472310</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="9">
+        <v>19</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K95" s="9">
         <v>855447</v>
       </c>
-      <c r="G95" s="9">
+      <c r="L95" s="9">
         <v>205458</v>
       </c>
-      <c r="H95" s="9">
+      <c r="M95" s="9">
         <v>357401</v>
       </c>
-      <c r="I95" s="9">
+      <c r="N95" s="9">
         <v>561242</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D96" s="11"/>
-      <c r="E96" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" s="11" t="s">
-        <v>14</v>
+      <c r="E96" s="11">
+        <v>0</v>
+      </c>
+      <c r="F96" s="11">
+        <v>0</v>
+      </c>
+      <c r="G96" s="11">
+        <v>0</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K96" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L96" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M96" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N96" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
+        <v>588493</v>
+      </c>
+      <c r="F97" s="9">
+        <v>943667</v>
+      </c>
+      <c r="G97" s="9">
+        <v>828262</v>
+      </c>
+      <c r="H97" s="9">
+        <v>1511674</v>
+      </c>
+      <c r="I97" s="9">
+        <v>2382367</v>
+      </c>
+      <c r="J97" s="9">
         <v>3460044</v>
       </c>
-      <c r="F97" s="9">
+      <c r="K97" s="9">
         <v>-4330740</v>
       </c>
-      <c r="G97" s="9">
+      <c r="L97" s="9">
         <v>621833</v>
       </c>
-      <c r="H97" s="9">
+      <c r="M97" s="9">
         <v>108016</v>
       </c>
-      <c r="I97" s="9">
+      <c r="N97" s="9">
         <v>216023</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11">
-        <v>0</v>
+        <v>-1239</v>
       </c>
       <c r="F98" s="11">
-        <v>0</v>
+        <v>-4570</v>
       </c>
       <c r="G98" s="11">
-        <v>0</v>
+        <v>-1321</v>
       </c>
       <c r="H98" s="11">
-        <v>0</v>
+        <v>-9314</v>
       </c>
       <c r="I98" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+        <v>9314</v>
+      </c>
+      <c r="J98" s="11">
+        <v>0</v>
+      </c>
+      <c r="K98" s="11">
+        <v>0</v>
+      </c>
+      <c r="L98" s="11">
+        <v>0</v>
+      </c>
+      <c r="M98" s="11">
+        <v>0</v>
+      </c>
+      <c r="N98" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" s="9">
+        <v>19</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I99" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K99" s="9">
         <v>5333720</v>
       </c>
-      <c r="G99" s="9">
+      <c r="L99" s="9">
         <v>1523818</v>
       </c>
-      <c r="H99" s="9">
+      <c r="M99" s="9">
         <v>1112432</v>
       </c>
-      <c r="I99" s="9">
+      <c r="N99" s="9">
         <v>819380</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" s="11">
-        <v>0</v>
-      </c>
-      <c r="G100" s="11">
-        <v>0</v>
-      </c>
-      <c r="H100" s="11">
-        <v>0</v>
-      </c>
-      <c r="I100" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I100" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J100" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K100" s="11">
+        <v>0</v>
+      </c>
+      <c r="L100" s="11">
+        <v>0</v>
+      </c>
+      <c r="M100" s="11">
+        <v>0</v>
+      </c>
+      <c r="N100" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" s="9">
-        <v>0</v>
-      </c>
-      <c r="G101" s="9">
-        <v>0</v>
-      </c>
-      <c r="H101" s="9">
-        <v>0</v>
-      </c>
-      <c r="I101" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K101" s="9">
+        <v>0</v>
+      </c>
+      <c r="L101" s="9">
+        <v>0</v>
+      </c>
+      <c r="M101" s="9">
+        <v>0</v>
+      </c>
+      <c r="N101" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="11">
-        <v>0</v>
-      </c>
-      <c r="G102" s="11">
-        <v>0</v>
-      </c>
-      <c r="H102" s="11">
-        <v>0</v>
-      </c>
-      <c r="I102" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I102" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J102" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K102" s="11">
+        <v>0</v>
+      </c>
+      <c r="L102" s="11">
+        <v>0</v>
+      </c>
+      <c r="M102" s="11">
+        <v>0</v>
+      </c>
+      <c r="N102" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="9">
+        <v>19</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K103" s="9">
         <v>6802702</v>
       </c>
-      <c r="G103" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H103" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I103" s="9">
+      <c r="L103" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M103" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N103" s="9">
         <v>2566579</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C104" s="15"/>
       <c r="D104" s="15"/>
       <c r="E104" s="15">
+        <v>2584846</v>
+      </c>
+      <c r="F104" s="15">
+        <v>5691699</v>
+      </c>
+      <c r="G104" s="15">
+        <v>4067625</v>
+      </c>
+      <c r="H104" s="15">
+        <v>5884552</v>
+      </c>
+      <c r="I104" s="15">
+        <v>8325190</v>
+      </c>
+      <c r="J104" s="15">
         <v>14323294</v>
       </c>
-      <c r="F104" s="15">
+      <c r="K104" s="15">
         <v>5333781</v>
       </c>
-      <c r="G104" s="15">
+      <c r="L104" s="15">
         <v>14381932</v>
       </c>
-      <c r="H104" s="15">
+      <c r="M104" s="15">
         <v>12935866</v>
       </c>
-      <c r="I104" s="15">
+      <c r="N104" s="15">
         <v>13849452</v>
       </c>
     </row>

--- a/database/industries/urea/khorasan/product/quarterly.xlsx
+++ b/database/industries/urea/khorasan/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\khorasan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\khorasan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB41905B-A418-4980-893D-4A4ADA8DA000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600EF22E-B088-4A34-A002-784384D7B6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="39">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1399/09</t>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>اوره</t>
@@ -596,12 +596,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -616,7 +616,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -633,7 +633,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -650,7 +650,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -665,7 +665,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -682,7 +682,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -699,7 +699,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -714,7 +714,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -751,7 +751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -766,7 +766,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -775,37 +775,37 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>138458</v>
+        <v>153229</v>
       </c>
       <c r="F10" s="9">
-        <v>153229</v>
+        <v>108038</v>
       </c>
       <c r="G10" s="9">
-        <v>108038</v>
+        <v>159365</v>
       </c>
       <c r="H10" s="9">
-        <v>159365</v>
+        <v>155790</v>
       </c>
       <c r="I10" s="9">
-        <v>155790</v>
+        <v>154118</v>
       </c>
       <c r="J10" s="9">
-        <v>154118</v>
+        <v>99467</v>
       </c>
       <c r="K10" s="9">
-        <v>99467</v>
+        <v>158530</v>
       </c>
       <c r="L10" s="9">
-        <v>158530</v>
+        <v>158709</v>
       </c>
       <c r="M10" s="9">
-        <v>158709</v>
+        <v>144171</v>
       </c>
       <c r="N10" s="9">
-        <v>144171</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>53643</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
@@ -814,37 +814,37 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>81933</v>
+        <v>89543</v>
       </c>
       <c r="F11" s="11">
-        <v>89543</v>
+        <v>55818</v>
       </c>
       <c r="G11" s="11">
-        <v>55818</v>
+        <v>92221</v>
       </c>
       <c r="H11" s="11">
-        <v>92221</v>
+        <v>92933</v>
       </c>
       <c r="I11" s="11">
-        <v>92933</v>
+        <v>90000</v>
       </c>
       <c r="J11" s="11">
-        <v>90000</v>
+        <v>57491</v>
       </c>
       <c r="K11" s="11">
-        <v>57491</v>
+        <v>93005</v>
       </c>
       <c r="L11" s="11">
-        <v>93005</v>
+        <v>93040</v>
       </c>
       <c r="M11" s="11">
-        <v>93040</v>
+        <v>86796</v>
       </c>
       <c r="N11" s="11">
-        <v>86796</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>33614</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
@@ -867,8 +867,8 @@
       <c r="I12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>19</v>
+      <c r="J12" s="9">
+        <v>0</v>
       </c>
       <c r="K12" s="9">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -892,37 +892,37 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>4763</v>
+        <v>5445</v>
       </c>
       <c r="F13" s="11">
-        <v>5445</v>
+        <v>3737</v>
       </c>
       <c r="G13" s="11">
-        <v>3737</v>
+        <v>5638</v>
       </c>
       <c r="H13" s="11">
-        <v>5638</v>
+        <v>5560</v>
       </c>
       <c r="I13" s="11">
-        <v>5560</v>
+        <v>5455</v>
       </c>
       <c r="J13" s="11">
+        <v>3049</v>
+      </c>
+      <c r="K13" s="11">
         <v>5455</v>
       </c>
-      <c r="K13" s="11">
-        <v>3049</v>
-      </c>
       <c r="L13" s="11">
-        <v>5455</v>
+        <v>5637</v>
       </c>
       <c r="M13" s="11">
-        <v>5637</v>
+        <v>3494</v>
       </c>
       <c r="N13" s="11">
-        <v>3494</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
@@ -937,8 +937,8 @@
       <c r="G14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>19</v>
+      <c r="H14" s="9">
+        <v>0</v>
       </c>
       <c r="I14" s="9">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -982,8 +982,8 @@
       <c r="I15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>19</v>
+      <c r="J15" s="11">
+        <v>0</v>
       </c>
       <c r="K15" s="11">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1021,23 +1021,23 @@
       <c r="I16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>19</v>
+      <c r="J16" s="9">
+        <v>291184</v>
       </c>
       <c r="K16" s="9">
-        <v>291184</v>
+        <v>81133</v>
       </c>
       <c r="L16" s="9">
-        <v>81133</v>
+        <v>81169</v>
       </c>
       <c r="M16" s="9">
-        <v>81169</v>
+        <v>76792</v>
       </c>
       <c r="N16" s="9">
-        <v>76792</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>28717</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1060,23 +1060,23 @@
       <c r="I17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>19</v>
+      <c r="J17" s="11">
+        <v>63157</v>
       </c>
       <c r="K17" s="11">
-        <v>63157</v>
+        <v>17519</v>
       </c>
       <c r="L17" s="11">
-        <v>17519</v>
+        <v>18101</v>
       </c>
       <c r="M17" s="11">
-        <v>18101</v>
+        <v>11457</v>
       </c>
       <c r="N17" s="11">
-        <v>11457</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1099,23 +1099,23 @@
       <c r="I18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="9" t="s">
-        <v>19</v>
+      <c r="J18" s="9">
+        <v>14729</v>
       </c>
       <c r="K18" s="9">
-        <v>14729</v>
+        <v>4022</v>
       </c>
       <c r="L18" s="9">
-        <v>4022</v>
+        <v>4096</v>
       </c>
       <c r="M18" s="9">
-        <v>4096</v>
+        <v>2779</v>
       </c>
       <c r="N18" s="9">
-        <v>2779</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1138,60 +1138,60 @@
       <c r="I19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0</v>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="L19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="11" t="s">
-        <v>19</v>
+      <c r="M19" s="11">
+        <v>0</v>
       </c>
       <c r="N19" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>225154</v>
+        <v>248217</v>
       </c>
       <c r="F20" s="13">
-        <v>248217</v>
+        <v>167593</v>
       </c>
       <c r="G20" s="13">
-        <v>167593</v>
+        <v>257224</v>
       </c>
       <c r="H20" s="13">
-        <v>257224</v>
+        <v>254283</v>
       </c>
       <c r="I20" s="13">
-        <v>254283</v>
+        <v>249573</v>
       </c>
       <c r="J20" s="13">
-        <v>249573</v>
+        <v>529077</v>
       </c>
       <c r="K20" s="13">
-        <v>529077</v>
+        <v>359664</v>
       </c>
       <c r="L20" s="13">
-        <v>359664</v>
+        <v>360752</v>
       </c>
       <c r="M20" s="13">
-        <v>360752</v>
+        <v>325489</v>
       </c>
       <c r="N20" s="13">
-        <v>325489</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>120690</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1206,7 +1206,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1221,7 +1221,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1236,7 +1236,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>28</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1288,7 +1288,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>15</v>
       </c>
@@ -1297,37 +1297,37 @@
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
-        <v>91381</v>
+        <v>143953</v>
       </c>
       <c r="F26" s="9">
-        <v>143953</v>
+        <v>111412</v>
       </c>
       <c r="G26" s="9">
-        <v>111412</v>
+        <v>117439</v>
       </c>
       <c r="H26" s="9">
-        <v>117439</v>
+        <v>134292</v>
       </c>
       <c r="I26" s="9">
-        <v>134292</v>
+        <v>242569</v>
       </c>
       <c r="J26" s="9">
-        <v>242569</v>
+        <v>-128427</v>
       </c>
       <c r="K26" s="9">
-        <v>-128427</v>
+        <v>113209</v>
       </c>
       <c r="L26" s="9">
-        <v>113209</v>
+        <v>94510</v>
       </c>
       <c r="M26" s="9">
-        <v>94510</v>
+        <v>72503</v>
       </c>
       <c r="N26" s="9">
-        <v>72503</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+        <v>91645</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>17</v>
       </c>
@@ -1336,37 +1336,37 @@
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>2314</v>
+        <v>7285</v>
       </c>
       <c r="F27" s="11">
-        <v>7285</v>
+        <v>2063</v>
       </c>
       <c r="G27" s="11">
-        <v>2063</v>
+        <v>6016</v>
       </c>
       <c r="H27" s="11">
-        <v>6016</v>
+        <v>4103</v>
       </c>
       <c r="I27" s="11">
-        <v>4103</v>
+        <v>7874</v>
       </c>
       <c r="J27" s="11">
-        <v>7874</v>
+        <v>7934</v>
       </c>
       <c r="K27" s="11">
-        <v>7934</v>
+        <v>6233</v>
       </c>
       <c r="L27" s="11">
-        <v>6233</v>
+        <v>9140</v>
       </c>
       <c r="M27" s="11">
-        <v>9140</v>
+        <v>9816</v>
       </c>
       <c r="N27" s="11">
-        <v>9816</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>18</v>
       </c>
@@ -1389,23 +1389,23 @@
       <c r="I28" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="9" t="s">
-        <v>19</v>
+      <c r="J28" s="9">
+        <v>13118</v>
       </c>
       <c r="K28" s="9">
-        <v>13118</v>
+        <v>1759</v>
       </c>
       <c r="L28" s="9">
-        <v>1759</v>
+        <v>4005</v>
       </c>
       <c r="M28" s="9">
-        <v>4005</v>
+        <v>5902</v>
       </c>
       <c r="N28" s="9">
-        <v>5902</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3847</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>29</v>
       </c>
@@ -1419,8 +1419,8 @@
       <c r="F29" s="11">
         <v>0</v>
       </c>
-      <c r="G29" s="11">
-        <v>0</v>
+      <c r="G29" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>19</v>
@@ -1444,7 +1444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>20</v>
       </c>
@@ -1453,37 +1453,37 @@
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9">
-        <v>4489</v>
+        <v>5733</v>
       </c>
       <c r="F30" s="9">
-        <v>5733</v>
+        <v>3647</v>
       </c>
       <c r="G30" s="9">
-        <v>3647</v>
+        <v>4807</v>
       </c>
       <c r="H30" s="9">
-        <v>4807</v>
+        <v>5884</v>
       </c>
       <c r="I30" s="9">
-        <v>5884</v>
+        <v>11203</v>
       </c>
       <c r="J30" s="9">
-        <v>11203</v>
+        <v>-9086</v>
       </c>
       <c r="K30" s="9">
-        <v>-9086</v>
+        <v>1312</v>
       </c>
       <c r="L30" s="9">
-        <v>1312</v>
+        <v>598</v>
       </c>
       <c r="M30" s="9">
-        <v>598</v>
+        <v>1084</v>
       </c>
       <c r="N30" s="9">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>21</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>22</v>
       </c>
@@ -1543,23 +1543,23 @@
       <c r="I32" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="9" t="s">
-        <v>19</v>
+      <c r="J32" s="9">
+        <v>12693</v>
       </c>
       <c r="K32" s="9">
-        <v>12693</v>
+        <v>3632</v>
       </c>
       <c r="L32" s="9">
-        <v>3632</v>
+        <v>4441</v>
       </c>
       <c r="M32" s="9">
-        <v>4441</v>
+        <v>4062</v>
       </c>
       <c r="N32" s="9">
-        <v>4062</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>23</v>
       </c>
@@ -1582,8 +1582,8 @@
       <c r="I33" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="11" t="s">
-        <v>19</v>
+      <c r="J33" s="11">
+        <v>0</v>
       </c>
       <c r="K33" s="11">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>24</v>
       </c>
@@ -1621,8 +1621,8 @@
       <c r="I34" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J34" s="9" t="s">
-        <v>19</v>
+      <c r="J34" s="9">
+        <v>0</v>
       </c>
       <c r="K34" s="9">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1660,8 @@
       <c r="I35" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="11" t="s">
-        <v>19</v>
+      <c r="J35" s="11">
+        <v>0</v>
       </c>
       <c r="K35" s="11">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>26</v>
       </c>
@@ -1699,60 +1699,60 @@
       <c r="I36" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J36" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K36" s="9">
+      <c r="J36" s="9">
         <v>186775</v>
       </c>
+      <c r="K36" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="L36" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M36" s="9" t="s">
-        <v>19</v>
+      <c r="M36" s="9">
+        <v>34924</v>
       </c>
       <c r="N36" s="9">
-        <v>34924</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11725</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15">
-        <v>98184</v>
+        <v>156971</v>
       </c>
       <c r="F37" s="15">
-        <v>156971</v>
+        <v>117122</v>
       </c>
       <c r="G37" s="15">
-        <v>117122</v>
+        <v>128262</v>
       </c>
       <c r="H37" s="15">
-        <v>128262</v>
+        <v>144279</v>
       </c>
       <c r="I37" s="15">
-        <v>144279</v>
+        <v>261646</v>
       </c>
       <c r="J37" s="15">
-        <v>261646</v>
+        <v>83007</v>
       </c>
       <c r="K37" s="15">
-        <v>83007</v>
+        <v>126145</v>
       </c>
       <c r="L37" s="15">
-        <v>126145</v>
+        <v>112694</v>
       </c>
       <c r="M37" s="15">
-        <v>112694</v>
+        <v>128291</v>
       </c>
       <c r="N37" s="15">
-        <v>128291</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>111666</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1767,7 +1767,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1782,7 +1782,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1797,7 +1797,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>31</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1849,7 +1849,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>15</v>
       </c>
@@ -1858,37 +1858,37 @@
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
-        <v>2838018</v>
+        <v>6657951</v>
       </c>
       <c r="F43" s="9">
-        <v>6657951</v>
+        <v>5598783</v>
       </c>
       <c r="G43" s="9">
-        <v>5598783</v>
+        <v>6258716</v>
       </c>
       <c r="H43" s="9">
-        <v>6258716</v>
+        <v>9069434</v>
       </c>
       <c r="I43" s="9">
-        <v>9069434</v>
+        <v>20409902</v>
       </c>
       <c r="J43" s="9">
-        <v>20409902</v>
+        <v>-5398209</v>
       </c>
       <c r="K43" s="9">
-        <v>-5398209</v>
+        <v>15349161</v>
       </c>
       <c r="L43" s="9">
-        <v>15349161</v>
+        <v>13783444</v>
       </c>
       <c r="M43" s="9">
-        <v>13783444</v>
+        <v>11186895</v>
       </c>
       <c r="N43" s="9">
-        <v>11186895</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11722532</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>17</v>
       </c>
@@ -1897,37 +1897,37 @@
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
-        <v>55668</v>
+        <v>209538</v>
       </c>
       <c r="F44" s="11">
-        <v>209538</v>
+        <v>72243</v>
       </c>
       <c r="G44" s="11">
-        <v>72243</v>
+        <v>281967</v>
       </c>
       <c r="H44" s="11">
-        <v>281967</v>
+        <v>267843</v>
       </c>
       <c r="I44" s="11">
-        <v>267843</v>
+        <v>775403</v>
       </c>
       <c r="J44" s="11">
-        <v>775403</v>
+        <v>1119406</v>
       </c>
       <c r="K44" s="11">
-        <v>1119406</v>
+        <v>1039004</v>
       </c>
       <c r="L44" s="11">
-        <v>1039004</v>
+        <v>1754584</v>
       </c>
       <c r="M44" s="11">
-        <v>1754584</v>
+        <v>1993927</v>
       </c>
       <c r="N44" s="11">
-        <v>1993927</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>639373</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>18</v>
       </c>
@@ -1950,23 +1950,23 @@
       <c r="I45" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J45" s="9" t="s">
-        <v>19</v>
+      <c r="J45" s="9">
+        <v>1244920</v>
       </c>
       <c r="K45" s="9">
-        <v>1244920</v>
+        <v>266443</v>
       </c>
       <c r="L45" s="9">
-        <v>266443</v>
+        <v>492936</v>
       </c>
       <c r="M45" s="9">
-        <v>492936</v>
+        <v>766225</v>
       </c>
       <c r="N45" s="9">
-        <v>766225</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>465385</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>29</v>
       </c>
@@ -1980,8 +1980,8 @@
       <c r="F46" s="11">
         <v>0</v>
       </c>
-      <c r="G46" s="11">
-        <v>0</v>
+      <c r="G46" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="H46" s="11" t="s">
         <v>19</v>
@@ -2005,7 +2005,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>20</v>
       </c>
@@ -2014,37 +2014,37 @@
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9">
-        <v>786798</v>
+        <v>1281530</v>
       </c>
       <c r="F47" s="9">
-        <v>1281530</v>
+        <v>1145559</v>
       </c>
       <c r="G47" s="9">
-        <v>1145559</v>
+        <v>1855471</v>
       </c>
       <c r="H47" s="9">
-        <v>1855471</v>
+        <v>2922063</v>
       </c>
       <c r="I47" s="9">
-        <v>2922063</v>
+        <v>6660403</v>
       </c>
       <c r="J47" s="9">
-        <v>6660403</v>
+        <v>-4847816</v>
       </c>
       <c r="K47" s="9">
-        <v>-4847816</v>
+        <v>816836</v>
       </c>
       <c r="L47" s="9">
-        <v>816836</v>
+        <v>263567</v>
       </c>
       <c r="M47" s="9">
-        <v>263567</v>
+        <v>445655</v>
       </c>
       <c r="N47" s="9">
-        <v>445655</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>81527</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>21</v>
       </c>
@@ -2053,19 +2053,19 @@
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>-1239</v>
+        <v>-5809</v>
       </c>
       <c r="F48" s="11">
-        <v>-5809</v>
+        <v>-7130</v>
       </c>
       <c r="G48" s="11">
-        <v>-7130</v>
+        <v>-9314</v>
       </c>
       <c r="H48" s="11">
-        <v>-9314</v>
+        <v>9314</v>
       </c>
       <c r="I48" s="11">
-        <v>9314</v>
+        <v>0</v>
       </c>
       <c r="J48" s="11">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>22</v>
       </c>
@@ -2106,23 +2106,23 @@
       <c r="I49" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J49" s="9" t="s">
-        <v>19</v>
+      <c r="J49" s="9">
+        <v>7362151</v>
       </c>
       <c r="K49" s="9">
-        <v>7362151</v>
+        <v>2061880</v>
       </c>
       <c r="L49" s="9">
-        <v>2061880</v>
+        <v>2053536</v>
       </c>
       <c r="M49" s="9">
-        <v>2053536</v>
+        <v>1667832</v>
       </c>
       <c r="N49" s="9">
-        <v>1667832</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+        <v>407998</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>23</v>
       </c>
@@ -2145,8 +2145,8 @@
       <c r="I50" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J50" s="11" t="s">
-        <v>19</v>
+      <c r="J50" s="11">
+        <v>0</v>
       </c>
       <c r="K50" s="11">
         <v>0</v>
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>24</v>
       </c>
@@ -2184,8 +2184,8 @@
       <c r="I51" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J51" s="9" t="s">
-        <v>19</v>
+      <c r="J51" s="9">
+        <v>0</v>
       </c>
       <c r="K51" s="9">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>25</v>
       </c>
@@ -2223,8 +2223,8 @@
       <c r="I52" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="11" t="s">
-        <v>19</v>
+      <c r="J52" s="11">
+        <v>0</v>
       </c>
       <c r="K52" s="11">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>26</v>
       </c>
@@ -2262,60 +2262,60 @@
       <c r="I53" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J53" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K53" s="9">
+      <c r="J53" s="9">
         <v>12348052</v>
       </c>
+      <c r="K53" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="L53" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M53" s="9" t="s">
-        <v>19</v>
+      <c r="M53" s="9">
+        <v>3792959</v>
       </c>
       <c r="N53" s="9">
-        <v>3792959</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-4273</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15">
-        <v>3679245</v>
+        <v>8143210</v>
       </c>
       <c r="F54" s="15">
-        <v>8143210</v>
+        <v>6809455</v>
       </c>
       <c r="G54" s="15">
-        <v>6809455</v>
+        <v>8386840</v>
       </c>
       <c r="H54" s="15">
-        <v>8386840</v>
+        <v>12268654</v>
       </c>
       <c r="I54" s="15">
-        <v>12268654</v>
+        <v>27845708</v>
       </c>
       <c r="J54" s="15">
-        <v>27845708</v>
+        <v>11828504</v>
       </c>
       <c r="K54" s="15">
-        <v>11828504</v>
+        <v>19533324</v>
       </c>
       <c r="L54" s="15">
-        <v>19533324</v>
+        <v>18348067</v>
       </c>
       <c r="M54" s="15">
-        <v>18348067</v>
+        <v>19853493</v>
       </c>
       <c r="N54" s="15">
-        <v>19853493</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13312542</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2330,7 +2330,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2345,7 +2345,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2360,7 +2360,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>33</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2412,7 +2412,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>15</v>
       </c>
@@ -2421,37 +2421,37 @@
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9">
-        <v>31056981</v>
+        <v>46250867</v>
       </c>
       <c r="F60" s="9">
-        <v>46250867</v>
+        <v>50252962</v>
       </c>
       <c r="G60" s="9">
-        <v>50252962</v>
+        <v>53293335</v>
       </c>
       <c r="H60" s="9">
-        <v>53293335</v>
+        <v>67535177</v>
       </c>
       <c r="I60" s="9">
-        <v>67535177</v>
+        <v>114579431</v>
       </c>
       <c r="J60" s="9">
-        <v>114579431</v>
+        <v>42033287</v>
       </c>
       <c r="K60" s="9">
-        <v>42033287</v>
+        <v>135582516</v>
       </c>
       <c r="L60" s="9">
-        <v>135582516</v>
+        <v>145841117</v>
       </c>
       <c r="M60" s="9">
-        <v>145841117</v>
+        <v>154295615</v>
       </c>
       <c r="N60" s="9">
-        <v>154295615</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>127912401</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>17</v>
       </c>
@@ -2460,37 +2460,37 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
-        <v>24057044</v>
+        <v>28592862</v>
       </c>
       <c r="F61" s="11">
-        <v>28592862</v>
+        <v>32202618</v>
       </c>
       <c r="G61" s="11">
-        <v>32202618</v>
+        <v>46869515</v>
       </c>
       <c r="H61" s="11">
-        <v>46869515</v>
+        <v>65279795</v>
       </c>
       <c r="I61" s="11">
-        <v>65279795</v>
+        <v>98476378</v>
       </c>
       <c r="J61" s="11">
-        <v>98476378</v>
+        <v>141089740</v>
       </c>
       <c r="K61" s="11">
-        <v>141089740</v>
+        <v>166694048</v>
       </c>
       <c r="L61" s="11">
-        <v>166694048</v>
+        <v>191967615</v>
       </c>
       <c r="M61" s="11">
-        <v>191967615</v>
+        <v>203130297</v>
       </c>
       <c r="N61" s="11">
-        <v>203130297</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+        <v>185648374</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>18</v>
       </c>
@@ -2513,23 +2513,23 @@
       <c r="I62" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J62" s="9" t="s">
-        <v>19</v>
+      <c r="J62" s="9">
+        <v>94901662</v>
       </c>
       <c r="K62" s="9">
-        <v>94901662</v>
+        <v>151474133</v>
       </c>
       <c r="L62" s="9">
-        <v>151474133</v>
+        <v>123080150</v>
       </c>
       <c r="M62" s="9">
-        <v>123080150</v>
+        <v>129824636</v>
       </c>
       <c r="N62" s="9">
-        <v>129824636</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>120973486</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>29</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>20</v>
       </c>
@@ -2577,37 +2577,37 @@
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
-        <v>175272444</v>
+        <v>223535671</v>
       </c>
       <c r="F64" s="9">
-        <v>223535671</v>
+        <v>314109953</v>
       </c>
       <c r="G64" s="9">
-        <v>314109953</v>
+        <v>385993551</v>
       </c>
       <c r="H64" s="9">
-        <v>385993551</v>
+        <v>496611659</v>
       </c>
       <c r="I64" s="9">
-        <v>496611659</v>
+        <v>838572694</v>
       </c>
       <c r="J64" s="9">
-        <v>838572694</v>
+        <v>533547876</v>
       </c>
       <c r="K64" s="9">
-        <v>533547876</v>
+        <v>622588415</v>
       </c>
       <c r="L64" s="9">
-        <v>622588415</v>
+        <v>440747492</v>
       </c>
       <c r="M64" s="9">
-        <v>440747492</v>
+        <v>411120849</v>
       </c>
       <c r="N64" s="9">
-        <v>411120849</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>407635000</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>21</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>22</v>
       </c>
@@ -2669,23 +2669,23 @@
       <c r="I66" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="9" t="s">
-        <v>19</v>
+      <c r="J66" s="9">
+        <v>580016623</v>
       </c>
       <c r="K66" s="9">
-        <v>580016623</v>
+        <v>567698238</v>
       </c>
       <c r="L66" s="9">
-        <v>567698238</v>
+        <v>462403963</v>
       </c>
       <c r="M66" s="9">
-        <v>462403963</v>
+        <v>410593796</v>
       </c>
       <c r="N66" s="9">
-        <v>410593796</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+        <v>506829814</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>23</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>24</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>25</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>26</v>
       </c>
@@ -2825,23 +2825,23 @@
       <c r="I70" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J70" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K70" s="9">
+      <c r="J70" s="9">
         <v>66111910</v>
       </c>
+      <c r="K70" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="L70" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M70" s="9" t="s">
-        <v>19</v>
+      <c r="M70" s="9">
+        <v>108606088</v>
       </c>
       <c r="N70" s="9">
-        <v>108606088</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>364435</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2856,7 +2856,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2871,7 +2871,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2886,7 +2886,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B74" s="7" t="s">
         <v>37</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2938,7 +2938,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>15</v>
       </c>
@@ -2947,37 +2947,37 @@
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9">
-        <v>-870404</v>
+        <v>-1993800</v>
       </c>
       <c r="F76" s="9">
-        <v>-1993800</v>
+        <v>-2359955</v>
       </c>
       <c r="G76" s="9">
-        <v>-2359955</v>
+        <v>-2027274</v>
       </c>
       <c r="H76" s="9">
-        <v>-2027274</v>
+        <v>-3258141</v>
       </c>
       <c r="I76" s="9">
-        <v>-3258141</v>
+        <v>-4835820</v>
       </c>
       <c r="J76" s="9">
-        <v>-4835820</v>
+        <v>1536657</v>
       </c>
       <c r="K76" s="9">
-        <v>1536657</v>
+        <v>-4027985</v>
       </c>
       <c r="L76" s="9">
-        <v>-4027985</v>
+        <v>-3694940</v>
       </c>
       <c r="M76" s="9">
-        <v>-3694940</v>
+        <v>-2972977</v>
       </c>
       <c r="N76" s="9">
-        <v>-2972977</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-4112196</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>17</v>
       </c>
@@ -2986,37 +2986,37 @@
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
-        <v>-25690</v>
+        <v>-119848</v>
       </c>
       <c r="F77" s="11">
-        <v>-119848</v>
+        <v>-64578</v>
       </c>
       <c r="G77" s="11">
-        <v>-64578</v>
+        <v>-131217</v>
       </c>
       <c r="H77" s="11">
-        <v>-131217</v>
+        <v>-145627</v>
       </c>
       <c r="I77" s="11">
-        <v>-145627</v>
+        <v>-386322</v>
       </c>
       <c r="J77" s="11">
-        <v>-386322</v>
+        <v>-585202</v>
       </c>
       <c r="K77" s="11">
-        <v>-585202</v>
+        <v>-329357</v>
       </c>
       <c r="L77" s="11">
-        <v>-329357</v>
+        <v>-485071</v>
       </c>
       <c r="M77" s="11">
-        <v>-485071</v>
+        <v>-521617</v>
       </c>
       <c r="N77" s="11">
-        <v>-521617</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-230040</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>18</v>
       </c>
@@ -3039,23 +3039,23 @@
       <c r="I78" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J78" s="9" t="s">
-        <v>19</v>
+      <c r="J78" s="9">
+        <v>-389473</v>
       </c>
       <c r="K78" s="9">
-        <v>-389473</v>
+        <v>-60985</v>
       </c>
       <c r="L78" s="9">
-        <v>-60985</v>
+        <v>-135535</v>
       </c>
       <c r="M78" s="9">
-        <v>-135535</v>
+        <v>-204983</v>
       </c>
       <c r="N78" s="9">
-        <v>-204983</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-160691</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>29</v>
       </c>
@@ -3069,8 +3069,8 @@
       <c r="F79" s="11">
         <v>0</v>
       </c>
-      <c r="G79" s="11">
-        <v>0</v>
+      <c r="G79" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="H79" s="11" t="s">
         <v>19</v>
@@ -3094,7 +3094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>20</v>
       </c>
@@ -3103,37 +3103,37 @@
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9">
-        <v>-198305</v>
+        <v>-337863</v>
       </c>
       <c r="F80" s="9">
-        <v>-337863</v>
+        <v>-317297</v>
       </c>
       <c r="G80" s="9">
-        <v>-317297</v>
+        <v>-343797</v>
       </c>
       <c r="H80" s="9">
-        <v>-343797</v>
+        <v>-539696</v>
       </c>
       <c r="I80" s="9">
-        <v>-539696</v>
+        <v>-704308</v>
       </c>
       <c r="J80" s="9">
-        <v>-704308</v>
+        <v>517076</v>
       </c>
       <c r="K80" s="9">
-        <v>517076</v>
+        <v>-195003</v>
       </c>
       <c r="L80" s="9">
-        <v>-195003</v>
+        <v>-155551</v>
       </c>
       <c r="M80" s="9">
-        <v>-155551</v>
+        <v>-229632</v>
       </c>
       <c r="N80" s="9">
-        <v>-229632</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-90615</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>21</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>22</v>
       </c>
@@ -3195,23 +3195,23 @@
       <c r="I82" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J82" s="9" t="s">
-        <v>19</v>
+      <c r="J82" s="9">
+        <v>-2028431</v>
       </c>
       <c r="K82" s="9">
-        <v>-2028431</v>
+        <v>-538062</v>
       </c>
       <c r="L82" s="9">
-        <v>-538062</v>
+        <v>-941104</v>
       </c>
       <c r="M82" s="9">
-        <v>-941104</v>
+        <v>-848452</v>
       </c>
       <c r="N82" s="9">
-        <v>-848452</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-359476</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>23</v>
       </c>
@@ -3234,8 +3234,8 @@
       <c r="I83" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J83" s="11" t="s">
-        <v>19</v>
+      <c r="J83" s="11">
+        <v>0</v>
       </c>
       <c r="K83" s="11">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>24</v>
       </c>
@@ -3273,8 +3273,8 @@
       <c r="I84" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J84" s="9" t="s">
-        <v>19</v>
+      <c r="J84" s="9">
+        <v>0</v>
       </c>
       <c r="K84" s="9">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>25</v>
       </c>
@@ -3312,8 +3312,8 @@
       <c r="I85" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J85" s="11" t="s">
-        <v>19</v>
+      <c r="J85" s="11">
+        <v>0</v>
       </c>
       <c r="K85" s="11">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>26</v>
       </c>
@@ -3351,60 +3351,60 @@
       <c r="I86" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J86" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K86" s="9">
+      <c r="J86" s="9">
         <v>-5545350</v>
       </c>
+      <c r="K86" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="L86" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M86" s="9" t="s">
-        <v>19</v>
+      <c r="M86" s="9">
+        <v>-1226380</v>
       </c>
       <c r="N86" s="9">
-        <v>-1226380</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-624864</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
-        <v>-1094399</v>
+        <v>-2451511</v>
       </c>
       <c r="F87" s="15">
-        <v>-2451511</v>
+        <v>-2741830</v>
       </c>
       <c r="G87" s="15">
-        <v>-2741830</v>
+        <v>-2502288</v>
       </c>
       <c r="H87" s="15">
-        <v>-2502288</v>
+        <v>-3943464</v>
       </c>
       <c r="I87" s="15">
-        <v>-3943464</v>
+        <v>-5926450</v>
       </c>
       <c r="J87" s="15">
-        <v>-5926450</v>
+        <v>-6494723</v>
       </c>
       <c r="K87" s="15">
-        <v>-6494723</v>
+        <v>-5151392</v>
       </c>
       <c r="L87" s="15">
-        <v>-5151392</v>
+        <v>-5412201</v>
       </c>
       <c r="M87" s="15">
-        <v>-5412201</v>
+        <v>-6004041</v>
       </c>
       <c r="N87" s="15">
-        <v>-6004041</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5577882</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3419,7 +3419,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3434,7 +3434,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3449,7 +3449,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
         <v>38</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3501,7 +3501,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>15</v>
       </c>
@@ -3510,37 +3510,37 @@
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9">
-        <v>1967614</v>
+        <v>4664151</v>
       </c>
       <c r="F93" s="9">
-        <v>4664151</v>
+        <v>3238828</v>
       </c>
       <c r="G93" s="9">
-        <v>3238828</v>
+        <v>4231442</v>
       </c>
       <c r="H93" s="9">
-        <v>4231442</v>
+        <v>5811293</v>
       </c>
       <c r="I93" s="9">
-        <v>5811293</v>
+        <v>10474169</v>
       </c>
       <c r="J93" s="9">
-        <v>10474169</v>
+        <v>-3861552</v>
       </c>
       <c r="K93" s="9">
-        <v>-3861552</v>
+        <v>11321176</v>
       </c>
       <c r="L93" s="9">
-        <v>11321176</v>
+        <v>10088504</v>
       </c>
       <c r="M93" s="9">
-        <v>10088504</v>
+        <v>8213918</v>
       </c>
       <c r="N93" s="9">
-        <v>8213918</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7610336</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>17</v>
       </c>
@@ -3549,37 +3549,37 @@
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11">
-        <v>29978</v>
+        <v>88451</v>
       </c>
       <c r="F94" s="11">
-        <v>88451</v>
+        <v>1856</v>
       </c>
       <c r="G94" s="11">
-        <v>1856</v>
+        <v>150750</v>
       </c>
       <c r="H94" s="11">
-        <v>150750</v>
+        <v>122216</v>
       </c>
       <c r="I94" s="11">
-        <v>122216</v>
+        <v>389081</v>
       </c>
       <c r="J94" s="11">
-        <v>389081</v>
+        <v>534204</v>
       </c>
       <c r="K94" s="11">
-        <v>534204</v>
+        <v>709647</v>
       </c>
       <c r="L94" s="11">
-        <v>709647</v>
+        <v>1269513</v>
       </c>
       <c r="M94" s="11">
-        <v>1269513</v>
+        <v>1472310</v>
       </c>
       <c r="N94" s="11">
-        <v>1472310</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+        <v>409333</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>18</v>
       </c>
@@ -3602,23 +3602,23 @@
       <c r="I95" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J95" s="9" t="s">
-        <v>19</v>
+      <c r="J95" s="9">
+        <v>855447</v>
       </c>
       <c r="K95" s="9">
-        <v>855447</v>
+        <v>205458</v>
       </c>
       <c r="L95" s="9">
-        <v>205458</v>
+        <v>357401</v>
       </c>
       <c r="M95" s="9">
-        <v>357401</v>
+        <v>561242</v>
       </c>
       <c r="N95" s="9">
-        <v>561242</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+        <v>304694</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>29</v>
       </c>
@@ -3632,8 +3632,8 @@
       <c r="F96" s="11">
         <v>0</v>
       </c>
-      <c r="G96" s="11">
-        <v>0</v>
+      <c r="G96" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="H96" s="11" t="s">
         <v>19</v>
@@ -3657,7 +3657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>20</v>
       </c>
@@ -3666,37 +3666,37 @@
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
-        <v>588493</v>
+        <v>943667</v>
       </c>
       <c r="F97" s="9">
-        <v>943667</v>
+        <v>828262</v>
       </c>
       <c r="G97" s="9">
-        <v>828262</v>
+        <v>1511674</v>
       </c>
       <c r="H97" s="9">
-        <v>1511674</v>
+        <v>2382367</v>
       </c>
       <c r="I97" s="9">
-        <v>2382367</v>
+        <v>3460044</v>
       </c>
       <c r="J97" s="9">
-        <v>3460044</v>
+        <v>-4330740</v>
       </c>
       <c r="K97" s="9">
-        <v>-4330740</v>
+        <v>621833</v>
       </c>
       <c r="L97" s="9">
-        <v>621833</v>
+        <v>108016</v>
       </c>
       <c r="M97" s="9">
-        <v>108016</v>
+        <v>216023</v>
       </c>
       <c r="N97" s="9">
-        <v>216023</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-9088</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>21</v>
       </c>
@@ -3705,19 +3705,19 @@
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11">
-        <v>-1239</v>
+        <v>-4570</v>
       </c>
       <c r="F98" s="11">
-        <v>-4570</v>
+        <v>-1321</v>
       </c>
       <c r="G98" s="11">
-        <v>-1321</v>
+        <v>-9314</v>
       </c>
       <c r="H98" s="11">
-        <v>-9314</v>
+        <v>9314</v>
       </c>
       <c r="I98" s="11">
-        <v>9314</v>
+        <v>0</v>
       </c>
       <c r="J98" s="11">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>22</v>
       </c>
@@ -3758,23 +3758,23 @@
       <c r="I99" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J99" s="9" t="s">
-        <v>19</v>
+      <c r="J99" s="9">
+        <v>5333720</v>
       </c>
       <c r="K99" s="9">
-        <v>5333720</v>
+        <v>1523818</v>
       </c>
       <c r="L99" s="9">
-        <v>1523818</v>
+        <v>1112432</v>
       </c>
       <c r="M99" s="9">
-        <v>1112432</v>
+        <v>819380</v>
       </c>
       <c r="N99" s="9">
-        <v>819380</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>48522</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>23</v>
       </c>
@@ -3797,8 +3797,8 @@
       <c r="I100" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J100" s="11" t="s">
-        <v>19</v>
+      <c r="J100" s="11">
+        <v>0</v>
       </c>
       <c r="K100" s="11">
         <v>0</v>
@@ -3813,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>24</v>
       </c>
@@ -3836,8 +3836,8 @@
       <c r="I101" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J101" s="9" t="s">
-        <v>19</v>
+      <c r="J101" s="9">
+        <v>0</v>
       </c>
       <c r="K101" s="9">
         <v>0</v>
@@ -3852,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>25</v>
       </c>
@@ -3875,8 +3875,8 @@
       <c r="I102" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J102" s="11" t="s">
-        <v>19</v>
+      <c r="J102" s="11">
+        <v>0</v>
       </c>
       <c r="K102" s="11">
         <v>0</v>
@@ -3891,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>26</v>
       </c>
@@ -3914,57 +3914,57 @@
       <c r="I103" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J103" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K103" s="9">
+      <c r="J103" s="9">
         <v>6802702</v>
       </c>
+      <c r="K103" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="L103" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M103" s="9" t="s">
-        <v>19</v>
+      <c r="M103" s="9">
+        <v>2566579</v>
       </c>
       <c r="N103" s="9">
-        <v>2566579</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-629137</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C104" s="15"/>
       <c r="D104" s="15"/>
       <c r="E104" s="15">
-        <v>2584846</v>
+        <v>5691699</v>
       </c>
       <c r="F104" s="15">
-        <v>5691699</v>
+        <v>4067625</v>
       </c>
       <c r="G104" s="15">
-        <v>4067625</v>
+        <v>5884552</v>
       </c>
       <c r="H104" s="15">
-        <v>5884552</v>
+        <v>8325190</v>
       </c>
       <c r="I104" s="15">
-        <v>8325190</v>
+        <v>14323294</v>
       </c>
       <c r="J104" s="15">
-        <v>14323294</v>
+        <v>5333781</v>
       </c>
       <c r="K104" s="15">
-        <v>5333781</v>
+        <v>14381932</v>
       </c>
       <c r="L104" s="15">
-        <v>14381932</v>
+        <v>12935866</v>
       </c>
       <c r="M104" s="15">
-        <v>12935866</v>
+        <v>13849452</v>
       </c>
       <c r="N104" s="15">
-        <v>13849452</v>
+        <v>7734660</v>
       </c>
     </row>
   </sheetData>
